--- a/src/main/resources/present_verb.xlsx
+++ b/src/main/resources/present_verb.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Colors" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Date" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Days of the week" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Family" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="FamilyEM" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Foods" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Home" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Prepositions of Place" sheetId="8" state="visible" r:id="rId9"/>
@@ -4821,16 +4821,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4852,7 +4850,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4860,14 +4857,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4875,7 +4870,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -4883,28 +4877,24 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4912,7 +4902,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -4920,21 +4909,18 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5100,7 +5086,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5510,7 +5496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -5537,8 +5523,8 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5714,7 +5700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>1281</v>
       </c>
@@ -5730,7 +5716,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>1285</v>
       </c>
@@ -5762,7 +5748,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>1293</v>
       </c>
@@ -6395,7 +6381,7 @@
       <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7148,7 +7134,7 @@
       <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7748,7 +7734,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>213</v>
       </c>
@@ -7756,7 +7742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>215</v>
       </c>
@@ -7764,7 +7750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>217</v>
       </c>
@@ -7772,7 +7758,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>219</v>
       </c>
@@ -7780,7 +7766,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>221</v>
       </c>
@@ -7788,7 +7774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>223</v>
       </c>
@@ -7828,7 +7814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>232</v>
       </c>
@@ -7860,7 +7846,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>240</v>
       </c>
@@ -7884,7 +7870,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>246</v>
       </c>
@@ -7892,7 +7878,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>248</v>
       </c>
@@ -7916,7 +7902,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>254</v>
       </c>
@@ -7924,7 +7910,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>256</v>
       </c>
@@ -7948,7 +7934,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>262</v>
       </c>
@@ -8083,7 +8069,7 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -8597,7 +8583,7 @@
   </sheetPr>
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/present_verb.xlsx
+++ b/src/main/resources/present_verb.xlsx
@@ -5,23 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Colors" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Date" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Days of the week" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FamilyEM" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Foods" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Home" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Prepositions of Place" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Place" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Ordinal Numbers" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Pronouns" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Nationalities" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Naming the Months of the year" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Professions" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="test" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="FamilyEMS" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Foods" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Home" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Prepositions of Place" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Place" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Ordinal Numbers" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Pronouns" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Nationalities" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Naming the Months of the year" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Professions" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1595">
   <si>
     <t xml:space="preserve">One</t>
   </si>
@@ -885,6 +886,9 @@
   </si>
   <si>
     <t xml:space="preserve">domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">Great Grandmother</t>
@@ -4821,14 +4825,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4850,6 +4856,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4857,12 +4864,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4870,6 +4879,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -4877,24 +4887,28 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4902,6 +4916,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -4909,18 +4924,21 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5086,7 +5104,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5521,6 +5539,980 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B118"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFEEEEEE"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5534,167 +6526,167 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -5702,63 +6694,63 @@
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -5766,7 +6758,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
@@ -5774,39 +6766,39 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -5814,26 +6806,26 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -5847,7 +6839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -5866,10 +6858,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="I1" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -5878,50 +6870,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -5935,7 +6927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -5954,234 +6946,234 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>
@@ -6195,7 +7187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -6216,146 +7208,146 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -6369,7 +7361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -6381,734 +7373,734 @@
       <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1480</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>1576</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>1585</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
   </sheetData>
@@ -7134,7 +8126,7 @@
       <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8064,6 +9056,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8082,10 +9106,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H1" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -8094,474 +9118,474 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -8596,231 +9620,231 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>87</v>
@@ -8828,191 +9852,191 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>138</v>
@@ -9020,938 +10044,938 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -9965,7 +10989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -9986,1387 +11010,1387 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -11380,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEEEEEE"/>
@@ -11402,1029 +12426,55 @@
         <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B118"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
   </sheetData>
